--- a/data/EA_Reduction_Paper_2023_cleaned_and_corrected_for_CL.xlsx
+++ b/data/EA_Reduction_Paper_2023_cleaned_and_corrected_for_CL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raylc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FilesVC\gona-imposed-form\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C436A-CA27-4CD5-AC10-E4F8A11FACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937CE41D-0E51-4433-9991-CACF6E7A2EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,8 +849,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -885,8 +885,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1195,7 @@
   <dimension ref="B1:AX227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
